--- a/Resources/AdactinBookingItenary.xlsx
+++ b/Resources/AdactinBookingItenary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdactinOrders" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="77">
   <si>
     <t>Order Id</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Last Name  </t>
   </si>
   <si>
-    <t>Billing Address  </t>
-  </si>
-  <si>
     <t>Order No.  </t>
   </si>
   <si>
@@ -145,6 +142,111 @@
   </si>
   <si>
     <t>AUD $ 149</t>
+  </si>
+  <si>
+    <t>18/03/2019</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>1 Adult(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Children</t>
+  </si>
+  <si>
+    <t>AUD $ 250</t>
+  </si>
+  <si>
+    <t>AUD $ 25</t>
+  </si>
+  <si>
+    <t>AUD $ 275</t>
+  </si>
+  <si>
+    <t>2B9O54DX8W</t>
+  </si>
+  <si>
+    <t>Search Hotel</t>
+  </si>
+  <si>
+    <t>291850</t>
+  </si>
+  <si>
+    <t>Cancel 2B9O54DX8W</t>
+  </si>
+  <si>
+    <t>291852</t>
+  </si>
+  <si>
+    <t>PW73O4SV96</t>
+  </si>
+  <si>
+    <t>Cancel PW73O4SV96</t>
+  </si>
+  <si>
+    <t>TYS3IS387V</t>
+  </si>
+  <si>
+    <t>291854</t>
+  </si>
+  <si>
+    <t>Cancel TYS3IS387V</t>
+  </si>
+  <si>
+    <t>2DK6440469</t>
+  </si>
+  <si>
+    <t>291874</t>
+  </si>
+  <si>
+    <t>Cancel 2DK6440469</t>
+  </si>
+  <si>
+    <t>RV1B4FKH56</t>
+  </si>
+  <si>
+    <t>291875</t>
+  </si>
+  <si>
+    <t>Cancel RV1B4FKH56</t>
+  </si>
+  <si>
+    <t>F1B3PD6843</t>
+  </si>
+  <si>
+    <t>291877</t>
+  </si>
+  <si>
+    <t>Cancel F1B3PD6843</t>
+  </si>
+  <si>
+    <t>RCS9907W4G</t>
+  </si>
+  <si>
+    <t>291878</t>
+  </si>
+  <si>
+    <t>Cancel RCS9907W4G</t>
+  </si>
+  <si>
+    <t>D36XHGPTVQ</t>
+  </si>
+  <si>
+    <t>291892</t>
+  </si>
+  <si>
+    <t>Cancel D36XHGPTVQ</t>
+  </si>
+  <si>
+    <t>10197U7V7D</t>
+  </si>
+  <si>
+    <t>291893</t>
+  </si>
+  <si>
+    <t>Cancel 10197U7V7D</t>
   </si>
 </sst>
 </file>
@@ -152,19 +254,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -174,18 +270,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -206,17 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -569,6 +652,50 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,62 +703,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>28</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -691,664 +862,664 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>37</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" t="s">
-        <v>39</v>
-      </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
         <v>36</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>37</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
         <v>41</v>
       </c>
-      <c r="N14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="N15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
         <v>36</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>38</v>
       </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
         <v>41</v>
-      </c>
-      <c r="N16" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
